--- a/natmiOut/OldD2/LR-pairs_lrc2p/Nampt-Insr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Nampt-Insr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.1201467885535</v>
+        <v>11.14139</v>
       </c>
       <c r="H2">
-        <v>11.1201467885535</v>
+        <v>22.28278</v>
       </c>
       <c r="I2">
-        <v>0.07608204749279705</v>
+        <v>0.07513058801557906</v>
       </c>
       <c r="J2">
-        <v>0.07608204749279705</v>
+        <v>0.0526837708362198</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.1356485085001</v>
+        <v>20.305315</v>
       </c>
       <c r="N2">
-        <v>20.1356485085001</v>
+        <v>40.61063</v>
       </c>
       <c r="O2">
-        <v>0.3318785697900667</v>
+        <v>0.3249597642811566</v>
       </c>
       <c r="P2">
-        <v>0.3318785697900667</v>
+        <v>0.2578249925194772</v>
       </c>
       <c r="Q2">
-        <v>223.9113670972395</v>
+        <v>226.22943348785</v>
       </c>
       <c r="R2">
-        <v>223.9113670972395</v>
+        <v>904.9177339514001</v>
       </c>
       <c r="S2">
-        <v>0.02525000110860942</v>
+        <v>0.02441441817184727</v>
       </c>
       <c r="T2">
-        <v>0.02525000110860942</v>
+        <v>0.01358319282174622</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.1201467885535</v>
+        <v>11.14139</v>
       </c>
       <c r="H3">
-        <v>11.1201467885535</v>
+        <v>22.28278</v>
       </c>
       <c r="I3">
-        <v>0.07608204749279705</v>
+        <v>0.07513058801557906</v>
       </c>
       <c r="J3">
-        <v>0.07608204749279705</v>
+        <v>0.0526837708362198</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.4765027454472</v>
+        <v>3.588822666666667</v>
       </c>
       <c r="N3">
-        <v>3.4765027454472</v>
+        <v>10.766468</v>
       </c>
       <c r="O3">
-        <v>0.0573002035938003</v>
+        <v>0.0574343696616808</v>
       </c>
       <c r="P3">
-        <v>0.0573002035938003</v>
+        <v>0.06835315117153294</v>
       </c>
       <c r="Q3">
-        <v>38.65922084018211</v>
+        <v>39.98447297017334</v>
       </c>
       <c r="R3">
-        <v>38.65922084018211</v>
+        <v>239.90683782104</v>
       </c>
       <c r="S3">
-        <v>0.004359516811170455</v>
+        <v>0.004315077964986213</v>
       </c>
       <c r="T3">
-        <v>0.004359516811170455</v>
+        <v>0.003601101752254531</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.1201467885535</v>
+        <v>11.14139</v>
       </c>
       <c r="H4">
-        <v>11.1201467885535</v>
+        <v>22.28278</v>
       </c>
       <c r="I4">
-        <v>0.07608204749279705</v>
+        <v>0.07513058801557906</v>
       </c>
       <c r="J4">
-        <v>0.07608204749279705</v>
+        <v>0.0526837708362198</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.34151122442368</v>
+        <v>8.306868</v>
       </c>
       <c r="N4">
-        <v>7.34151122442368</v>
+        <v>24.920604</v>
       </c>
       <c r="O4">
-        <v>0.1210038129256631</v>
+        <v>0.1329404575695912</v>
       </c>
       <c r="P4">
-        <v>0.1210038129256631</v>
+        <v>0.1582136140188136</v>
       </c>
       <c r="Q4">
-        <v>81.63868246540446</v>
+        <v>92.55005606652</v>
       </c>
       <c r="R4">
-        <v>81.63868246540446</v>
+        <v>555.3003363991201</v>
       </c>
       <c r="S4">
-        <v>0.009206217841819827</v>
+        <v>0.009987894748263523</v>
       </c>
       <c r="T4">
-        <v>0.009206217841819827</v>
+        <v>0.00833528978413731</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.1201467885535</v>
+        <v>11.14139</v>
       </c>
       <c r="H5">
-        <v>11.1201467885535</v>
+        <v>22.28278</v>
       </c>
       <c r="I5">
-        <v>0.07608204749279705</v>
+        <v>0.07513058801557906</v>
       </c>
       <c r="J5">
-        <v>0.07608204749279705</v>
+        <v>0.0526837708362198</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.6869250897619</v>
+        <v>10.71009166666667</v>
       </c>
       <c r="N5">
-        <v>10.6869250897619</v>
+        <v>32.130275</v>
       </c>
       <c r="O5">
-        <v>0.1761433912966112</v>
+        <v>0.1714008801847979</v>
       </c>
       <c r="P5">
-        <v>0.1761433912966112</v>
+        <v>0.203985703041882</v>
       </c>
       <c r="Q5">
-        <v>118.8401757164276</v>
+        <v>119.3253081940833</v>
       </c>
       <c r="R5">
-        <v>118.8401757164276</v>
+        <v>715.9518491645</v>
       </c>
       <c r="S5">
-        <v>0.01340134986217111</v>
+        <v>0.01287744891467168</v>
       </c>
       <c r="T5">
-        <v>0.01340134986217111</v>
+        <v>0.0107467360329237</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.1201467885535</v>
+        <v>11.14139</v>
       </c>
       <c r="H6">
-        <v>11.1201467885535</v>
+        <v>22.28278</v>
       </c>
       <c r="I6">
-        <v>0.07608204749279705</v>
+        <v>0.07513058801557906</v>
       </c>
       <c r="J6">
-        <v>0.07608204749279705</v>
+        <v>0.0526837708362198</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.696316683033899</v>
+        <v>9.935348333333332</v>
       </c>
       <c r="N6">
-        <v>9.696316683033899</v>
+        <v>29.806045</v>
       </c>
       <c r="O6">
-        <v>0.1598160452412745</v>
+        <v>0.1590021357684519</v>
       </c>
       <c r="P6">
-        <v>0.1598160452412745</v>
+        <v>0.1892298476817572</v>
       </c>
       <c r="Q6">
-        <v>107.8244648236371</v>
+        <v>110.6935905675167</v>
       </c>
       <c r="R6">
-        <v>107.8244648236371</v>
+        <v>664.1615434051</v>
       </c>
       <c r="S6">
-        <v>0.01215913194415765</v>
+        <v>0.01194592395601672</v>
       </c>
       <c r="T6">
-        <v>0.01215913194415765</v>
+        <v>0.009969341930638477</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.1201467885535</v>
+        <v>11.14139</v>
       </c>
       <c r="H7">
-        <v>11.1201467885535</v>
+        <v>22.28278</v>
       </c>
       <c r="I7">
-        <v>0.07608204749279705</v>
+        <v>0.07513058801557906</v>
       </c>
       <c r="J7">
-        <v>0.07608204749279705</v>
+        <v>0.0526837708362198</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.334830357178429</v>
+        <v>9.6391825</v>
       </c>
       <c r="N7">
-        <v>9.334830357178429</v>
+        <v>19.278365</v>
       </c>
       <c r="O7">
-        <v>0.1538579771525842</v>
+        <v>0.1542623925343217</v>
       </c>
       <c r="P7">
-        <v>0.1538579771525842</v>
+        <v>0.1223926915665369</v>
       </c>
       <c r="Q7">
-        <v>103.8046838180694</v>
+        <v>107.393891513675</v>
       </c>
       <c r="R7">
-        <v>103.8046838180694</v>
+        <v>429.5755660547001</v>
       </c>
       <c r="S7">
-        <v>0.0117058299248686</v>
+        <v>0.01158982425979366</v>
       </c>
       <c r="T7">
-        <v>0.0117058299248686</v>
+        <v>0.006448108514519564</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.9440855357836</v>
+        <v>11.55329566666667</v>
       </c>
       <c r="H8">
-        <v>10.9440855357836</v>
+        <v>34.659887</v>
       </c>
       <c r="I8">
-        <v>0.07487746801650191</v>
+        <v>0.07790822302733393</v>
       </c>
       <c r="J8">
-        <v>0.07487746801650191</v>
+        <v>0.08194729490293731</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.1356485085001</v>
+        <v>20.305315</v>
       </c>
       <c r="N8">
-        <v>20.1356485085001</v>
+        <v>40.61063</v>
       </c>
       <c r="O8">
-        <v>0.3318785697900667</v>
+        <v>0.3249597642811566</v>
       </c>
       <c r="P8">
-        <v>0.3318785697900667</v>
+        <v>0.2578249925194772</v>
       </c>
       <c r="Q8">
-        <v>220.3662595954986</v>
+        <v>234.5933077998016</v>
       </c>
       <c r="R8">
-        <v>220.3662595954986</v>
+        <v>1407.55984679881</v>
       </c>
       <c r="S8">
-        <v>0.02485022699481812</v>
+        <v>0.02531703779052621</v>
       </c>
       <c r="T8">
-        <v>0.02485022699481812</v>
+        <v>0.02112806069534121</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.9440855357836</v>
+        <v>11.55329566666667</v>
       </c>
       <c r="H9">
-        <v>10.9440855357836</v>
+        <v>34.659887</v>
       </c>
       <c r="I9">
-        <v>0.07487746801650191</v>
+        <v>0.07790822302733393</v>
       </c>
       <c r="J9">
-        <v>0.07487746801650191</v>
+        <v>0.08194729490293731</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.4765027454472</v>
+        <v>3.588822666666667</v>
       </c>
       <c r="N9">
-        <v>3.4765027454472</v>
+        <v>10.766468</v>
       </c>
       <c r="O9">
-        <v>0.0573002035938003</v>
+        <v>0.0574343696616808</v>
       </c>
       <c r="P9">
-        <v>0.0573002035938003</v>
+        <v>0.06835315117153294</v>
       </c>
       <c r="Q9">
-        <v>38.04714341156068</v>
+        <v>41.46272936323511</v>
       </c>
       <c r="R9">
-        <v>38.04714341156068</v>
+        <v>373.1645642691159</v>
       </c>
       <c r="S9">
-        <v>0.00429049416193383</v>
+        <v>0.004474609681036569</v>
       </c>
       <c r="T9">
-        <v>0.00429049416193383</v>
+        <v>0.005601355836598665</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.9440855357836</v>
+        <v>11.55329566666667</v>
       </c>
       <c r="H10">
-        <v>10.9440855357836</v>
+        <v>34.659887</v>
       </c>
       <c r="I10">
-        <v>0.07487746801650191</v>
+        <v>0.07790822302733393</v>
       </c>
       <c r="J10">
-        <v>0.07487746801650191</v>
+        <v>0.08194729490293731</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.34151122442368</v>
+        <v>8.306868</v>
       </c>
       <c r="N10">
-        <v>7.34151122442368</v>
+        <v>24.920604</v>
       </c>
       <c r="O10">
-        <v>0.1210038129256631</v>
+        <v>0.1329404575695912</v>
       </c>
       <c r="P10">
-        <v>0.1210038129256631</v>
+        <v>0.1582136140188136</v>
       </c>
       <c r="Q10">
-        <v>80.34612680200814</v>
+        <v>95.97170206797199</v>
       </c>
       <c r="R10">
-        <v>80.34612680200814</v>
+        <v>863.745318611748</v>
       </c>
       <c r="S10">
-        <v>0.009060459132216116</v>
+        <v>0.01035715481768753</v>
       </c>
       <c r="T10">
-        <v>0.009060459132216116</v>
+        <v>0.01296517768565922</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.9440855357836</v>
+        <v>11.55329566666667</v>
       </c>
       <c r="H11">
-        <v>10.9440855357836</v>
+        <v>34.659887</v>
       </c>
       <c r="I11">
-        <v>0.07487746801650191</v>
+        <v>0.07790822302733393</v>
       </c>
       <c r="J11">
-        <v>0.07487746801650191</v>
+        <v>0.08194729490293731</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.6869250897619</v>
+        <v>10.71009166666667</v>
       </c>
       <c r="N11">
-        <v>10.6869250897619</v>
+        <v>32.130275</v>
       </c>
       <c r="O11">
-        <v>0.1761433912966112</v>
+        <v>0.1714008801847979</v>
       </c>
       <c r="P11">
-        <v>0.1761433912966112</v>
+        <v>0.203985703041882</v>
       </c>
       <c r="Q11">
-        <v>116.9586222968661</v>
+        <v>123.7368556421028</v>
       </c>
       <c r="R11">
-        <v>116.9586222968661</v>
+        <v>1113.631700778925</v>
       </c>
       <c r="S11">
-        <v>0.01318917114813019</v>
+        <v>0.01335353800051857</v>
       </c>
       <c r="T11">
-        <v>0.01318917114813019</v>
+        <v>0.0167160765631561</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.9440855357836</v>
+        <v>11.55329566666667</v>
       </c>
       <c r="H12">
-        <v>10.9440855357836</v>
+        <v>34.659887</v>
       </c>
       <c r="I12">
-        <v>0.07487746801650191</v>
+        <v>0.07790822302733393</v>
       </c>
       <c r="J12">
-        <v>0.07487746801650191</v>
+        <v>0.08194729490293731</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.696316683033899</v>
+        <v>9.935348333333332</v>
       </c>
       <c r="N12">
-        <v>9.696316683033899</v>
+        <v>29.806045</v>
       </c>
       <c r="O12">
-        <v>0.1598160452412745</v>
+        <v>0.1590021357684519</v>
       </c>
       <c r="P12">
-        <v>0.1598160452412745</v>
+        <v>0.1892298476817572</v>
       </c>
       <c r="Q12">
-        <v>106.1173191611685</v>
+        <v>114.7860168463239</v>
       </c>
       <c r="R12">
-        <v>106.1173191611685</v>
+        <v>1033.074151616915</v>
       </c>
       <c r="S12">
-        <v>0.01196662081607736</v>
+        <v>0.01238757385527098</v>
       </c>
       <c r="T12">
-        <v>0.01196662081607736</v>
+        <v>0.01550687413241487</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.9440855357836</v>
+        <v>11.55329566666667</v>
       </c>
       <c r="H13">
-        <v>10.9440855357836</v>
+        <v>34.659887</v>
       </c>
       <c r="I13">
-        <v>0.07487746801650191</v>
+        <v>0.07790822302733393</v>
       </c>
       <c r="J13">
-        <v>0.07487746801650191</v>
+        <v>0.08194729490293731</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.334830357178429</v>
+        <v>9.6391825</v>
       </c>
       <c r="N13">
-        <v>9.334830357178429</v>
+        <v>19.278365</v>
       </c>
       <c r="O13">
-        <v>0.1538579771525842</v>
+        <v>0.1542623925343217</v>
       </c>
       <c r="P13">
-        <v>0.1538579771525842</v>
+        <v>0.1223926915665369</v>
       </c>
       <c r="Q13">
-        <v>102.1611818909901</v>
+        <v>111.3643254074592</v>
       </c>
       <c r="R13">
-        <v>102.1611818909901</v>
+        <v>668.185952444755</v>
       </c>
       <c r="S13">
-        <v>0.01152049576332631</v>
+        <v>0.01201830888229407</v>
       </c>
       <c r="T13">
-        <v>0.01152049576332631</v>
+        <v>0.01002974998976725</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.7019050734472</v>
+        <v>44.40764766666666</v>
       </c>
       <c r="H14">
-        <v>43.7019050734472</v>
+        <v>133.222943</v>
       </c>
       <c r="I14">
-        <v>0.2990005870018037</v>
+        <v>0.2994574897373957</v>
       </c>
       <c r="J14">
-        <v>0.2990005870018037</v>
+        <v>0.3149825559978948</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.1356485085001</v>
+        <v>20.305315</v>
       </c>
       <c r="N14">
-        <v>20.1356485085001</v>
+        <v>40.61063</v>
       </c>
       <c r="O14">
-        <v>0.3318785697900667</v>
+        <v>0.3249597642811566</v>
       </c>
       <c r="P14">
-        <v>0.3318785697900667</v>
+        <v>0.2578249925194772</v>
       </c>
       <c r="Q14">
-        <v>879.9661997107701</v>
+        <v>901.7112742806816</v>
       </c>
       <c r="R14">
-        <v>879.9661997107701</v>
+        <v>5410.267645684089</v>
       </c>
       <c r="S14">
-        <v>0.09923188718054901</v>
+        <v>0.097311635277291</v>
       </c>
       <c r="T14">
-        <v>0.09923188718054901</v>
+        <v>0.08121037514392304</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.7019050734472</v>
+        <v>44.40764766666666</v>
       </c>
       <c r="H15">
-        <v>43.7019050734472</v>
+        <v>133.222943</v>
       </c>
       <c r="I15">
-        <v>0.2990005870018037</v>
+        <v>0.2994574897373957</v>
       </c>
       <c r="J15">
-        <v>0.2990005870018037</v>
+        <v>0.3149825559978948</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.4765027454472</v>
+        <v>3.588822666666667</v>
       </c>
       <c r="N15">
-        <v>3.4765027454472</v>
+        <v>10.766468</v>
       </c>
       <c r="O15">
-        <v>0.0573002035938003</v>
+        <v>0.0574343696616808</v>
       </c>
       <c r="P15">
-        <v>0.0573002035938003</v>
+        <v>0.06835315117153294</v>
       </c>
       <c r="Q15">
-        <v>151.9297929691121</v>
+        <v>159.3711725194804</v>
       </c>
       <c r="R15">
-        <v>151.9297929691121</v>
+        <v>1434.340552675324</v>
       </c>
       <c r="S15">
-        <v>0.01713279450986915</v>
+        <v>0.01719915216353657</v>
       </c>
       <c r="T15">
-        <v>0.01713279450986915</v>
+        <v>0.02153005026651994</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.7019050734472</v>
+        <v>44.40764766666666</v>
       </c>
       <c r="H16">
-        <v>43.7019050734472</v>
+        <v>133.222943</v>
       </c>
       <c r="I16">
-        <v>0.2990005870018037</v>
+        <v>0.2994574897373957</v>
       </c>
       <c r="J16">
-        <v>0.2990005870018037</v>
+        <v>0.3149825559978948</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.34151122442368</v>
+        <v>8.306868</v>
       </c>
       <c r="N16">
-        <v>7.34151122442368</v>
+        <v>24.920604</v>
       </c>
       <c r="O16">
-        <v>0.1210038129256631</v>
+        <v>0.1329404575695912</v>
       </c>
       <c r="P16">
-        <v>0.1210038129256631</v>
+        <v>0.1582136140188136</v>
       </c>
       <c r="Q16">
-        <v>320.8380266254108</v>
+        <v>368.888467357508</v>
       </c>
       <c r="R16">
-        <v>320.8380266254108</v>
+        <v>3319.996206217572</v>
       </c>
       <c r="S16">
-        <v>0.03618021109422969</v>
+        <v>0.03981001570833054</v>
       </c>
       <c r="T16">
-        <v>0.03618021109422969</v>
+        <v>0.04983452853731029</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.7019050734472</v>
+        <v>44.40764766666666</v>
       </c>
       <c r="H17">
-        <v>43.7019050734472</v>
+        <v>133.222943</v>
       </c>
       <c r="I17">
-        <v>0.2990005870018037</v>
+        <v>0.2994574897373957</v>
       </c>
       <c r="J17">
-        <v>0.2990005870018037</v>
+        <v>0.3149825559978948</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.6869250897619</v>
+        <v>10.71009166666667</v>
       </c>
       <c r="N17">
-        <v>10.6869250897619</v>
+        <v>32.130275</v>
       </c>
       <c r="O17">
-        <v>0.1761433912966112</v>
+        <v>0.1714008801847979</v>
       </c>
       <c r="P17">
-        <v>0.1761433912966112</v>
+        <v>0.203985703041882</v>
       </c>
       <c r="Q17">
-        <v>467.0389857998157</v>
+        <v>475.609977211036</v>
       </c>
       <c r="R17">
-        <v>467.0389857998157</v>
+        <v>4280.489794899324</v>
       </c>
       <c r="S17">
-        <v>0.05266697739417515</v>
+        <v>0.05132727731891971</v>
       </c>
       <c r="T17">
-        <v>0.05266697739417515</v>
+        <v>0.06425193813115955</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.7019050734472</v>
+        <v>44.40764766666666</v>
       </c>
       <c r="H18">
-        <v>43.7019050734472</v>
+        <v>133.222943</v>
       </c>
       <c r="I18">
-        <v>0.2990005870018037</v>
+        <v>0.2994574897373957</v>
       </c>
       <c r="J18">
-        <v>0.2990005870018037</v>
+        <v>0.3149825559978948</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.696316683033899</v>
+        <v>9.935348333333332</v>
       </c>
       <c r="N18">
-        <v>9.696316683033899</v>
+        <v>29.806045</v>
       </c>
       <c r="O18">
-        <v>0.1598160452412745</v>
+        <v>0.1590021357684519</v>
       </c>
       <c r="P18">
-        <v>0.1598160452412745</v>
+        <v>0.1892298476817572</v>
       </c>
       <c r="Q18">
-        <v>423.7475112440299</v>
+        <v>441.2054482322704</v>
       </c>
       <c r="R18">
-        <v>423.7475112440299</v>
+        <v>3970.849034090434</v>
       </c>
       <c r="S18">
-        <v>0.0477850913394479</v>
+        <v>0.04761438044010518</v>
       </c>
       <c r="T18">
-        <v>0.0477850913394479</v>
+        <v>0.05960410109389221</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.7019050734472</v>
+        <v>44.40764766666666</v>
       </c>
       <c r="H19">
-        <v>43.7019050734472</v>
+        <v>133.222943</v>
       </c>
       <c r="I19">
-        <v>0.2990005870018037</v>
+        <v>0.2994574897373957</v>
       </c>
       <c r="J19">
-        <v>0.2990005870018037</v>
+        <v>0.3149825559978948</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.334830357178429</v>
+        <v>9.6391825</v>
       </c>
       <c r="N19">
-        <v>9.334830357178429</v>
+        <v>19.278365</v>
       </c>
       <c r="O19">
-        <v>0.1538579771525842</v>
+        <v>0.1542623925343217</v>
       </c>
       <c r="P19">
-        <v>0.1538579771525842</v>
+        <v>0.1223926915665369</v>
       </c>
       <c r="Q19">
-        <v>407.9498701461449</v>
+        <v>428.0534202546991</v>
       </c>
       <c r="R19">
-        <v>407.9498701461449</v>
+        <v>2568.320521528195</v>
       </c>
       <c r="S19">
-        <v>0.04600362548353277</v>
+        <v>0.04619502882921275</v>
       </c>
       <c r="T19">
-        <v>0.04600362548353277</v>
+        <v>0.03855156282508979</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>58.4599558795029</v>
+        <v>59.08053333333334</v>
       </c>
       <c r="H20">
-        <v>58.4599558795029</v>
+        <v>177.2416</v>
       </c>
       <c r="I20">
-        <v>0.399972520527287</v>
+        <v>0.3984022828037931</v>
       </c>
       <c r="J20">
-        <v>0.399972520527287</v>
+        <v>0.4190570403264285</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.1356485085001</v>
+        <v>20.305315</v>
       </c>
       <c r="N20">
-        <v>20.1356485085001</v>
+        <v>40.61063</v>
       </c>
       <c r="O20">
-        <v>0.3318785697900667</v>
+        <v>0.3249597642811566</v>
       </c>
       <c r="P20">
-        <v>0.3318785697900667</v>
+        <v>0.2578249925194772</v>
       </c>
       <c r="Q20">
-        <v>1177.129123412094</v>
+        <v>1199.648839701333</v>
       </c>
       <c r="R20">
-        <v>1177.129123412094</v>
+        <v>7197.893038208001</v>
       </c>
       <c r="S20">
-        <v>0.1327423080679241</v>
+        <v>0.1294647119089953</v>
       </c>
       <c r="T20">
-        <v>0.1327423080679241</v>
+        <v>0.1080433782873957</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>58.4599558795029</v>
+        <v>59.08053333333334</v>
       </c>
       <c r="H21">
-        <v>58.4599558795029</v>
+        <v>177.2416</v>
       </c>
       <c r="I21">
-        <v>0.399972520527287</v>
+        <v>0.3984022828037931</v>
       </c>
       <c r="J21">
-        <v>0.399972520527287</v>
+        <v>0.4190570403264285</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.4765027454472</v>
+        <v>3.588822666666667</v>
       </c>
       <c r="N21">
-        <v>3.4765027454472</v>
+        <v>10.766468</v>
       </c>
       <c r="O21">
-        <v>0.0573002035938003</v>
+        <v>0.0574343696616808</v>
       </c>
       <c r="P21">
-        <v>0.0573002035938003</v>
+        <v>0.06835315117153294</v>
       </c>
       <c r="Q21">
-        <v>203.236197113814</v>
+        <v>212.0295571854222</v>
       </c>
       <c r="R21">
-        <v>203.236197113814</v>
+        <v>1908.2660146688</v>
       </c>
       <c r="S21">
-        <v>0.02291850685813902</v>
+        <v>0.02288198398461055</v>
       </c>
       <c r="T21">
-        <v>0.02291850685813902</v>
+        <v>0.02864386922692754</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>58.4599558795029</v>
+        <v>59.08053333333334</v>
       </c>
       <c r="H22">
-        <v>58.4599558795029</v>
+        <v>177.2416</v>
       </c>
       <c r="I22">
-        <v>0.399972520527287</v>
+        <v>0.3984022828037931</v>
       </c>
       <c r="J22">
-        <v>0.399972520527287</v>
+        <v>0.4190570403264285</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.34151122442368</v>
+        <v>8.306868</v>
       </c>
       <c r="N22">
-        <v>7.34151122442368</v>
+        <v>24.920604</v>
       </c>
       <c r="O22">
-        <v>0.1210038129256631</v>
+        <v>0.1329404575695912</v>
       </c>
       <c r="P22">
-        <v>0.1210038129256631</v>
+        <v>0.1582136140188136</v>
       </c>
       <c r="Q22">
-        <v>429.1844222686836</v>
+        <v>490.7741917696</v>
       </c>
       <c r="R22">
-        <v>429.1844222686836</v>
+        <v>4416.9677259264</v>
       </c>
       <c r="S22">
-        <v>0.04839820004928977</v>
+        <v>0.05296378177270591</v>
       </c>
       <c r="T22">
-        <v>0.04839820004928977</v>
+        <v>0.06630052883007198</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>58.4599558795029</v>
+        <v>59.08053333333334</v>
       </c>
       <c r="H23">
-        <v>58.4599558795029</v>
+        <v>177.2416</v>
       </c>
       <c r="I23">
-        <v>0.399972520527287</v>
+        <v>0.3984022828037931</v>
       </c>
       <c r="J23">
-        <v>0.399972520527287</v>
+        <v>0.4190570403264285</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.6869250897619</v>
+        <v>10.71009166666667</v>
       </c>
       <c r="N23">
-        <v>10.6869250897619</v>
+        <v>32.130275</v>
       </c>
       <c r="O23">
-        <v>0.1761433912966112</v>
+        <v>0.1714008801847979</v>
       </c>
       <c r="P23">
-        <v>0.1761433912966112</v>
+        <v>0.203985703041882</v>
       </c>
       <c r="Q23">
-        <v>624.7571692350332</v>
+        <v>632.7579277155555</v>
       </c>
       <c r="R23">
-        <v>624.7571692350332</v>
+        <v>5694.82134944</v>
       </c>
       <c r="S23">
-        <v>0.0704525161911298</v>
+        <v>0.06828650194020291</v>
       </c>
       <c r="T23">
-        <v>0.0704525161911298</v>
+        <v>0.08548164498563683</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>58.4599558795029</v>
+        <v>59.08053333333334</v>
       </c>
       <c r="H24">
-        <v>58.4599558795029</v>
+        <v>177.2416</v>
       </c>
       <c r="I24">
-        <v>0.399972520527287</v>
+        <v>0.3984022828037931</v>
       </c>
       <c r="J24">
-        <v>0.399972520527287</v>
+        <v>0.4190570403264285</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.696316683033899</v>
+        <v>9.935348333333332</v>
       </c>
       <c r="N24">
-        <v>9.696316683033899</v>
+        <v>29.806045</v>
       </c>
       <c r="O24">
-        <v>0.1598160452412745</v>
+        <v>0.1590021357684519</v>
       </c>
       <c r="P24">
-        <v>0.1598160452412745</v>
+        <v>0.1892298476817572</v>
       </c>
       <c r="Q24">
-        <v>566.8462454838497</v>
+        <v>586.9856783857778</v>
       </c>
       <c r="R24">
-        <v>566.8462454838497</v>
+        <v>5282.871105472</v>
       </c>
       <c r="S24">
-        <v>0.06392202643585553</v>
+        <v>0.06334681386082987</v>
       </c>
       <c r="T24">
-        <v>0.06392202643585553</v>
+        <v>0.07929809991093806</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>58.4599558795029</v>
+        <v>59.08053333333334</v>
       </c>
       <c r="H25">
-        <v>58.4599558795029</v>
+        <v>177.2416</v>
       </c>
       <c r="I25">
-        <v>0.399972520527287</v>
+        <v>0.3984022828037931</v>
       </c>
       <c r="J25">
-        <v>0.399972520527287</v>
+        <v>0.4190570403264285</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.334830357178429</v>
+        <v>9.6391825</v>
       </c>
       <c r="N25">
-        <v>9.334830357178429</v>
+        <v>19.278365</v>
       </c>
       <c r="O25">
-        <v>0.1538579771525842</v>
+        <v>0.1542623925343217</v>
       </c>
       <c r="P25">
-        <v>0.1538579771525842</v>
+        <v>0.1223926915665369</v>
       </c>
       <c r="Q25">
-        <v>545.7137708232952</v>
+        <v>569.4880429973334</v>
       </c>
       <c r="R25">
-        <v>545.7137708232952</v>
+        <v>3416.928257984</v>
       </c>
       <c r="S25">
-        <v>0.06153896292494885</v>
+        <v>0.06145848933644857</v>
       </c>
       <c r="T25">
-        <v>0.06153896292494885</v>
+        <v>0.0512895190854584</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.2443710365091</v>
+        <v>11.3246</v>
       </c>
       <c r="H26">
-        <v>11.2443710365091</v>
+        <v>33.9738</v>
       </c>
       <c r="I26">
-        <v>0.07693196749047582</v>
+        <v>0.07636604203256743</v>
       </c>
       <c r="J26">
-        <v>0.07693196749047582</v>
+        <v>0.08032516111704033</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>20.1356485085001</v>
+        <v>20.305315</v>
       </c>
       <c r="N26">
-        <v>20.1356485085001</v>
+        <v>40.61063</v>
       </c>
       <c r="O26">
-        <v>0.3318785697900667</v>
+        <v>0.3249597642811566</v>
       </c>
       <c r="P26">
-        <v>0.3318785697900667</v>
+        <v>0.2578249925194772</v>
       </c>
       <c r="Q26">
-        <v>226.4127028903062</v>
+        <v>229.949570249</v>
       </c>
       <c r="R26">
-        <v>226.4127028903062</v>
+        <v>1379.697421494</v>
       </c>
       <c r="S26">
-        <v>0.02553207134187502</v>
+        <v>0.02481589101798801</v>
       </c>
       <c r="T26">
-        <v>0.02553207134187502</v>
+        <v>0.02070983406412672</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>11.2443710365091</v>
+        <v>11.3246</v>
       </c>
       <c r="H27">
-        <v>11.2443710365091</v>
+        <v>33.9738</v>
       </c>
       <c r="I27">
-        <v>0.07693196749047582</v>
+        <v>0.07636604203256743</v>
       </c>
       <c r="J27">
-        <v>0.07693196749047582</v>
+        <v>0.08032516111704033</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.4765027454472</v>
+        <v>3.588822666666667</v>
       </c>
       <c r="N27">
-        <v>3.4765027454472</v>
+        <v>10.766468</v>
       </c>
       <c r="O27">
-        <v>0.0573002035938003</v>
+        <v>0.0574343696616808</v>
       </c>
       <c r="P27">
-        <v>0.0573002035938003</v>
+        <v>0.06835315117153294</v>
       </c>
       <c r="Q27">
-        <v>39.09108677925087</v>
+        <v>40.64198117093333</v>
       </c>
       <c r="R27">
-        <v>39.09108677925087</v>
+        <v>365.7778305383999</v>
       </c>
       <c r="S27">
-        <v>0.004408217400075891</v>
+        <v>0.004386035487697931</v>
       </c>
       <c r="T27">
-        <v>0.004408217400075891</v>
+        <v>0.005490477880710797</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>11.2443710365091</v>
+        <v>11.3246</v>
       </c>
       <c r="H28">
-        <v>11.2443710365091</v>
+        <v>33.9738</v>
       </c>
       <c r="I28">
-        <v>0.07693196749047582</v>
+        <v>0.07636604203256743</v>
       </c>
       <c r="J28">
-        <v>0.07693196749047582</v>
+        <v>0.08032516111704033</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>7.34151122442368</v>
+        <v>8.306868</v>
       </c>
       <c r="N28">
-        <v>7.34151122442368</v>
+        <v>24.920604</v>
       </c>
       <c r="O28">
-        <v>0.1210038129256631</v>
+        <v>0.1329404575695912</v>
       </c>
       <c r="P28">
-        <v>0.1210038129256631</v>
+        <v>0.1582136140188136</v>
       </c>
       <c r="Q28">
-        <v>82.5506761761161</v>
+        <v>94.07195735279998</v>
       </c>
       <c r="R28">
-        <v>82.5506761761161</v>
+        <v>846.6476161751999</v>
       </c>
       <c r="S28">
-        <v>0.009309061402220728</v>
+        <v>0.01015213657058815</v>
       </c>
       <c r="T28">
-        <v>0.009309061402220728</v>
+        <v>0.01270853403697044</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>11.2443710365091</v>
+        <v>11.3246</v>
       </c>
       <c r="H29">
-        <v>11.2443710365091</v>
+        <v>33.9738</v>
       </c>
       <c r="I29">
-        <v>0.07693196749047582</v>
+        <v>0.07636604203256743</v>
       </c>
       <c r="J29">
-        <v>0.07693196749047582</v>
+        <v>0.08032516111704033</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.6869250897619</v>
+        <v>10.71009166666667</v>
       </c>
       <c r="N29">
-        <v>10.6869250897619</v>
+        <v>32.130275</v>
       </c>
       <c r="O29">
-        <v>0.1761433912966112</v>
+        <v>0.1714008801847979</v>
       </c>
       <c r="P29">
-        <v>0.1761433912966112</v>
+        <v>0.203985703041882</v>
       </c>
       <c r="Q29">
-        <v>120.1677509486611</v>
+        <v>121.2875040883333</v>
       </c>
       <c r="R29">
-        <v>120.1677509486611</v>
+        <v>1091.587536795</v>
       </c>
       <c r="S29">
-        <v>0.01355105765289306</v>
+        <v>0.01308920682061133</v>
       </c>
       <c r="T29">
-        <v>0.01355105765289306</v>
+        <v>0.01638518446241192</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>11.2443710365091</v>
+        <v>11.3246</v>
       </c>
       <c r="H30">
-        <v>11.2443710365091</v>
+        <v>33.9738</v>
       </c>
       <c r="I30">
-        <v>0.07693196749047582</v>
+        <v>0.07636604203256743</v>
       </c>
       <c r="J30">
-        <v>0.07693196749047582</v>
+        <v>0.08032516111704033</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>9.696316683033899</v>
+        <v>9.935348333333332</v>
       </c>
       <c r="N30">
-        <v>9.696316683033899</v>
+        <v>29.806045</v>
       </c>
       <c r="O30">
-        <v>0.1598160452412745</v>
+        <v>0.1590021357684519</v>
       </c>
       <c r="P30">
-        <v>0.1598160452412745</v>
+        <v>0.1892298476817572</v>
       </c>
       <c r="Q30">
-        <v>109.0289824715264</v>
+        <v>112.5138457356666</v>
       </c>
       <c r="R30">
-        <v>109.0289824715264</v>
+        <v>1012.624611621</v>
       </c>
       <c r="S30">
-        <v>0.01229496279695814</v>
+        <v>0.01214236378336159</v>
       </c>
       <c r="T30">
-        <v>0.01229496279695814</v>
+        <v>0.01519991800319015</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>11.2443710365091</v>
+        <v>11.3246</v>
       </c>
       <c r="H31">
-        <v>11.2443710365091</v>
+        <v>33.9738</v>
       </c>
       <c r="I31">
-        <v>0.07693196749047582</v>
+        <v>0.07636604203256743</v>
       </c>
       <c r="J31">
-        <v>0.07693196749047582</v>
+        <v>0.08032516111704033</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>9.334830357178429</v>
+        <v>9.6391825</v>
       </c>
       <c r="N31">
-        <v>9.334830357178429</v>
+        <v>19.278365</v>
       </c>
       <c r="O31">
-        <v>0.1538579771525842</v>
+        <v>0.1542623925343217</v>
       </c>
       <c r="P31">
-        <v>0.1538579771525842</v>
+        <v>0.1223926915665369</v>
       </c>
       <c r="Q31">
-        <v>104.964296098983</v>
+        <v>109.1598861395</v>
       </c>
       <c r="R31">
-        <v>104.964296098983</v>
+        <v>654.959316837</v>
       </c>
       <c r="S31">
-        <v>0.01183659689645298</v>
+        <v>0.01178040835232043</v>
       </c>
       <c r="T31">
-        <v>0.01183659689645298</v>
+        <v>0.009831212669630303</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>10.689466379529</v>
+        <v>10.786195</v>
       </c>
       <c r="H32">
-        <v>10.689466379529</v>
+        <v>21.57239</v>
       </c>
       <c r="I32">
-        <v>0.0731354094711346</v>
+        <v>0.07273537438333086</v>
       </c>
       <c r="J32">
-        <v>0.0731354094711346</v>
+        <v>0.05100417681947941</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>20.1356485085001</v>
+        <v>20.305315</v>
       </c>
       <c r="N32">
-        <v>20.1356485085001</v>
+        <v>40.61063</v>
       </c>
       <c r="O32">
-        <v>0.3318785697900667</v>
+        <v>0.3249597642811566</v>
       </c>
       <c r="P32">
-        <v>0.3318785697900667</v>
+        <v>0.2578249925194772</v>
       </c>
       <c r="Q32">
-        <v>215.2393377616251</v>
+        <v>219.017087126425</v>
       </c>
       <c r="R32">
-        <v>215.2393377616251</v>
+        <v>876.0683485057</v>
       </c>
       <c r="S32">
-        <v>0.02427207509629105</v>
+        <v>0.02363607011450887</v>
       </c>
       <c r="T32">
-        <v>0.02427207509629105</v>
+        <v>0.01315015150694437</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>10.689466379529</v>
+        <v>10.786195</v>
       </c>
       <c r="H33">
-        <v>10.689466379529</v>
+        <v>21.57239</v>
       </c>
       <c r="I33">
-        <v>0.0731354094711346</v>
+        <v>0.07273537438333086</v>
       </c>
       <c r="J33">
-        <v>0.0731354094711346</v>
+        <v>0.05100417681947941</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>3.4765027454472</v>
+        <v>3.588822666666667</v>
       </c>
       <c r="N33">
-        <v>3.4765027454472</v>
+        <v>10.766468</v>
       </c>
       <c r="O33">
-        <v>0.0573002035938003</v>
+        <v>0.0574343696616808</v>
       </c>
       <c r="P33">
-        <v>0.0573002035938003</v>
+        <v>0.06835315117153294</v>
       </c>
       <c r="Q33">
-        <v>37.16195921579811</v>
+        <v>38.70974110308666</v>
       </c>
       <c r="R33">
-        <v>37.16195921579811</v>
+        <v>232.25844661852</v>
       </c>
       <c r="S33">
-        <v>0.004190673852611963</v>
+        <v>0.004177510379812972</v>
       </c>
       <c r="T33">
-        <v>0.004190673852611963</v>
+        <v>0.003486296208521472</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>10.689466379529</v>
+        <v>10.786195</v>
       </c>
       <c r="H34">
-        <v>10.689466379529</v>
+        <v>21.57239</v>
       </c>
       <c r="I34">
-        <v>0.0731354094711346</v>
+        <v>0.07273537438333086</v>
       </c>
       <c r="J34">
-        <v>0.0731354094711346</v>
+        <v>0.05100417681947941</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>7.34151122442368</v>
+        <v>8.306868</v>
       </c>
       <c r="N34">
-        <v>7.34151122442368</v>
+        <v>24.920604</v>
       </c>
       <c r="O34">
-        <v>0.1210038129256631</v>
+        <v>0.1329404575695912</v>
       </c>
       <c r="P34">
-        <v>0.1210038129256631</v>
+        <v>0.1582136140188136</v>
       </c>
       <c r="Q34">
-        <v>78.47683740841171</v>
+        <v>89.59949808725999</v>
       </c>
       <c r="R34">
-        <v>78.47683740841171</v>
+        <v>537.59698852356</v>
       </c>
       <c r="S34">
-        <v>0.008849663405886938</v>
+        <v>0.009669473952015523</v>
       </c>
       <c r="T34">
-        <v>0.008849663405886938</v>
+        <v>0.008069555144664438</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>10.689466379529</v>
+        <v>10.786195</v>
       </c>
       <c r="H35">
-        <v>10.689466379529</v>
+        <v>21.57239</v>
       </c>
       <c r="I35">
-        <v>0.0731354094711346</v>
+        <v>0.07273537438333086</v>
       </c>
       <c r="J35">
-        <v>0.0731354094711346</v>
+        <v>0.05100417681947941</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.6869250897619</v>
+        <v>10.71009166666667</v>
       </c>
       <c r="N35">
-        <v>10.6869250897619</v>
+        <v>32.130275</v>
       </c>
       <c r="O35">
-        <v>0.1761433912966112</v>
+        <v>0.1714008801847979</v>
       </c>
       <c r="P35">
-        <v>0.1761433912966112</v>
+        <v>0.203985703041882</v>
       </c>
       <c r="Q35">
-        <v>114.2375264475548</v>
+        <v>115.5211371845416</v>
       </c>
       <c r="R35">
-        <v>114.2375264475548</v>
+        <v>693.1268231072499</v>
       </c>
       <c r="S35">
-        <v>0.01288231904811195</v>
+        <v>0.01246690718987371</v>
       </c>
       <c r="T35">
-        <v>0.01288231904811195</v>
+        <v>0.01040412286659397</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>10.689466379529</v>
+        <v>10.786195</v>
       </c>
       <c r="H36">
-        <v>10.689466379529</v>
+        <v>21.57239</v>
       </c>
       <c r="I36">
-        <v>0.0731354094711346</v>
+        <v>0.07273537438333086</v>
       </c>
       <c r="J36">
-        <v>0.0731354094711346</v>
+        <v>0.05100417681947941</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>9.696316683033899</v>
+        <v>9.935348333333332</v>
       </c>
       <c r="N36">
-        <v>9.696316683033899</v>
+        <v>29.806045</v>
       </c>
       <c r="O36">
-        <v>0.1598160452412745</v>
+        <v>0.1590021357684519</v>
       </c>
       <c r="P36">
-        <v>0.1598160452412745</v>
+        <v>0.1892298476817572</v>
       </c>
       <c r="Q36">
-        <v>103.648451188557</v>
+        <v>107.1646045162583</v>
       </c>
       <c r="R36">
-        <v>103.648451188557</v>
+        <v>642.9876270975499</v>
       </c>
       <c r="S36">
-        <v>0.01168821190877799</v>
+        <v>0.01156507987286755</v>
       </c>
       <c r="T36">
-        <v>0.01168821190877799</v>
+        <v>0.009651512610683501</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>10.689466379529</v>
+        <v>10.786195</v>
       </c>
       <c r="H37">
-        <v>10.689466379529</v>
+        <v>21.57239</v>
       </c>
       <c r="I37">
-        <v>0.0731354094711346</v>
+        <v>0.07273537438333086</v>
       </c>
       <c r="J37">
-        <v>0.0731354094711346</v>
+        <v>0.05100417681947941</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>9.334830357178429</v>
+        <v>9.6391825</v>
       </c>
       <c r="N37">
-        <v>9.334830357178429</v>
+        <v>19.278365</v>
       </c>
       <c r="O37">
-        <v>0.1538579771525842</v>
+        <v>0.1542623925343217</v>
       </c>
       <c r="P37">
-        <v>0.1538579771525842</v>
+        <v>0.1223926915665369</v>
       </c>
       <c r="Q37">
-        <v>99.7843552616655</v>
+        <v>103.9701020855875</v>
       </c>
       <c r="R37">
-        <v>99.7843552616655</v>
+        <v>415.88040834235</v>
       </c>
       <c r="S37">
-        <v>0.01125246615945472</v>
+        <v>0.01122033287425223</v>
       </c>
       <c r="T37">
-        <v>0.01125246615945472</v>
+        <v>0.006242538482071656</v>
       </c>
     </row>
   </sheetData>
